--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D5B1C-C9D6-4F45-A7F0-F161C89AA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22676E7A-98C6-498E-8A6C-3C7ACE5579B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Num Stat Sig Genes Identified" sheetId="1" r:id="rId1"/>
+    <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -490,7 +490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11:K12"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22676E7A-98C6-498E-8A6C-3C7ACE5579B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E2783-C63C-4F6A-ACCB-6EE24329A418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
     <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId1"/>
+    <sheet name="M_MUT_and_WT_M_P60_CORT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Cluster</t>
   </si>
@@ -488,9 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F955EBF-C53E-49B2-9FD4-922B1DE84DE9}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,4 +1038,276 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D77AD3-FFC7-48DF-8C48-7C9783FD34C5}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E2783-C63C-4F6A-ACCB-6EE24329A418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508791C-2539-4F8B-BD75-4FCEF35CE51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +173,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D77AD3-FFC7-48DF-8C48-7C9783FD34C5}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,6 +1070,7 @@
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1093,7 +1104,7 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1101,211 +1112,340 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="2">
+        <f>E2+H2+I2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>F2+H2+J2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>G2+J2+I2+K2</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B15" si="0">E3+H3+I3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C15" si="1">F3+H3+J3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D15" si="2">G3+J3+I3+K3</f>
+        <v>0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508791C-2539-4F8B-BD75-4FCEF35CE51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D59C84-7331-4B35-A9F5-1A7DA74F5B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
     <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId1"/>
     <sheet name="M_MUT_and_WT_M_P60_CORT" sheetId="2" r:id="rId2"/>
+    <sheet name="M_MUT_and_WT_M_P120_CORT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Cluster</t>
   </si>
@@ -501,7 +502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:K15"/>
+      <selection pane="topRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1056,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,6 +1115,603 @@
       </c>
       <c r="B2" s="2">
         <f>E2+H2+I2+K2</f>
+        <v>357</v>
+      </c>
+      <c r="C2" s="2">
+        <f>F2+H2+J2+K2</f>
+        <v>1159</v>
+      </c>
+      <c r="D2" s="2">
+        <f>G2+J2+I2+K2</f>
+        <v>1618</v>
+      </c>
+      <c r="E2" s="2">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2">
+        <v>476</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2">
+        <v>852</v>
+      </c>
+      <c r="K2" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B15" si="0">E3+H3+I3+K3</f>
+        <v>94</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C15" si="1">F3+H3+J3+K3</f>
+        <v>396</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D15" si="2">G3+J3+I3+K3</f>
+        <v>1132</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>697</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2">
+        <v>343</v>
+      </c>
+      <c r="K3" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>252</v>
+      </c>
+      <c r="K4" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>965</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>1531</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2">
+        <v>569</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2">
+        <v>743</v>
+      </c>
+      <c r="K5" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>170</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>146</v>
+      </c>
+      <c r="K6" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DF74BF-AABA-4A23-BC33-3925ED04FC40}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>E2+H2+I2+K2</f>
         <v>0</v>
       </c>
       <c r="C2" s="2">
@@ -1444,9 +2042,6 @@
       <c r="J15" s="2"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D59C84-7331-4B35-A9F5-1A7DA74F5B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBA2C3-55F1-4A3A-97F7-CFEFD05907D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
     <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D77AD3-FFC7-48DF-8C48-7C9783FD34C5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1653,12 +1653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DF74BF-AABA-4A23-BC33-3925ED04FC40}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1712,23 +1713,37 @@
       </c>
       <c r="B2" s="2">
         <f>E2+H2+I2+K2</f>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="C2" s="2">
         <f>F2+H2+J2+K2</f>
-        <v>0</v>
+        <v>2492</v>
       </c>
       <c r="D2" s="2">
         <f>G2+J2+I2+K2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
+        <v>2838</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>202</v>
+      </c>
+      <c r="G2" s="2">
+        <v>516</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1736,23 +1751,37 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B15" si="0">E3+H3+I3+K3</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C15" si="1">F3+H3+J3+K3</f>
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D15" si="2">G3+J3+I3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
+        <v>3362</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>146</v>
+      </c>
+      <c r="G3" s="2">
+        <v>888</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2198</v>
+      </c>
+      <c r="K3" s="6">
+        <v>244</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1760,23 +1789,37 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
+        <v>1292</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2">
+        <v>319</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>881</v>
+      </c>
+      <c r="K4" s="6">
+        <v>86</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1784,23 +1827,37 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2704</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
+        <v>3154</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>193</v>
+      </c>
+      <c r="G5" s="2">
+        <v>613</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2222</v>
+      </c>
+      <c r="K5" s="6">
+        <v>287</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1808,23 +1865,37 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
+        <v>825</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2">
+        <v>326</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>456</v>
+      </c>
+      <c r="K6" s="6">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1832,23 +1903,37 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
+        <v>992</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2">
+        <v>414</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>533</v>
+      </c>
+      <c r="K7" s="6">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1856,23 +1941,37 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>18</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1880,23 +1979,37 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>194</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>88</v>
+      </c>
+      <c r="K9" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1904,23 +2017,37 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1928,23 +2055,37 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
+        <v>1339</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2">
+        <v>641</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>635</v>
+      </c>
+      <c r="K11" s="7">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1952,23 +2093,37 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
+        <v>1148</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2">
+        <v>446</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>627</v>
+      </c>
+      <c r="K12" s="7">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1976,23 +2131,37 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -2010,13 +2179,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2034,13 +2217,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBA2C3-55F1-4A3A-97F7-CFEFD05907D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B096297-2983-4F3F-8534-402E99A74801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
-    <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId1"/>
-    <sheet name="M_MUT_and_WT_M_P60_CORT" sheetId="2" r:id="rId2"/>
-    <sheet name="M_MUT_and_WT_M_P120_CORT" sheetId="3" r:id="rId3"/>
+    <sheet name="M_MUT_and_WT_M_E18_WB" sheetId="4" r:id="rId1"/>
+    <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId2"/>
+    <sheet name="M_MUT_and_WT_M_P60_CORT" sheetId="2" r:id="rId3"/>
+    <sheet name="M_MUT_and_WT_M_P120_CORT" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Cluster</t>
   </si>
@@ -497,12 +498,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51042800-4EDA-4A59-84F7-92389264E67E}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <f>E2+H2+I2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <f>F2+H2+J2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>G2+J2+I2+K2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" ref="B3:B15" si="0">E3+H3+I3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C15" si="1">F3+H3+J3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D15" si="2">G3+J3+I3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F955EBF-C53E-49B2-9FD4-922B1DE84DE9}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
+      <selection pane="topRight" sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,12 +1486,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D77AD3-FFC7-48DF-8C48-7C9783FD34C5}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,12 +2084,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DF74BF-AABA-4A23-BC33-3925ED04FC40}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,7 +2176,7 @@
       <c r="J2" s="2">
         <v>1999</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>288</v>
       </c>
     </row>
@@ -1779,7 +2214,7 @@
       <c r="J3" s="2">
         <v>2198</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>244</v>
       </c>
     </row>
@@ -1817,7 +2252,7 @@
       <c r="J4" s="2">
         <v>881</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>86</v>
       </c>
     </row>
@@ -1855,7 +2290,7 @@
       <c r="J5" s="2">
         <v>2222</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>287</v>
       </c>
     </row>
@@ -1893,7 +2328,7 @@
       <c r="J6" s="2">
         <v>456</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>42</v>
       </c>
     </row>
@@ -1931,7 +2366,7 @@
       <c r="J7" s="2">
         <v>533</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>45</v>
       </c>
     </row>
@@ -1969,7 +2404,7 @@
       <c r="J8" s="2">
         <v>18</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2007,7 +2442,7 @@
       <c r="J9" s="2">
         <v>88</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2083,7 +2518,7 @@
       <c r="J11" s="2">
         <v>635</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>57</v>
       </c>
     </row>
@@ -2121,7 +2556,7 @@
       <c r="J12" s="2">
         <v>627</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>68</v>
       </c>
     </row>
@@ -2159,7 +2594,7 @@
       <c r="J13" s="2">
         <v>16</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>4</v>
       </c>
     </row>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B096297-2983-4F3F-8534-402E99A74801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506E523-AFAD-4A58-9E8C-7ED4B15A1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,9 +176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -502,12 +499,13 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -523,7 +521,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -558,373 +556,566 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <f>E2+H2+I2+K2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
         <f>F2+H2+J2+K2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+        <v>593</v>
+      </c>
+      <c r="D2" s="6">
         <f>G2+J2+I2+K2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
+        <v>562</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>193</v>
+      </c>
+      <c r="G2" s="6">
+        <v>162</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>396</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f t="shared" ref="B3:B15" si="0">E3+H3+I3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C15" si="1">F3+H3+J3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+        <v>291</v>
+      </c>
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D15" si="2">G3+J3+I3+K3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>128</v>
+      </c>
+      <c r="G3" s="6">
+        <v>116</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>160</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>68</v>
+      </c>
+      <c r="G4" s="6">
+        <v>96</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>92</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>133</v>
+      </c>
+      <c r="G5" s="6">
+        <v>195</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>492</v>
+      </c>
+      <c r="K5" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>72</v>
+      </c>
+      <c r="G6" s="6">
+        <v>367</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>321</v>
+      </c>
+      <c r="K6" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>101</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6">
+        <v>465</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>189</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="2"/>
+        <v>824</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>101</v>
+      </c>
+      <c r="G12" s="6">
+        <v>405</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>406</v>
+      </c>
+      <c r="K12" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>94</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>24</v>
+      </c>
+      <c r="K13" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,7 +1128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:K15"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,7 +1997,7 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1882,7 +2073,7 @@
       <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +2111,7 @@
       <c r="J11" s="2">
         <v>16</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1996,7 +2187,7 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2034,7 +2225,7 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2072,12 +2263,12 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2480,7 +2671,7 @@
       <c r="J10" s="2">
         <v>3</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2632,7 +2823,7 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2861,7 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>0</v>
       </c>
     </row>

--- a/DEG_data/DEG Number of Identified Genes.xlsx
+++ b/DEG_data/DEG Number of Identified Genes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicky\Documents\GitHub\snRNA-seq-pipeline\DEG_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506E523-AFAD-4A58-9E8C-7ED4B15A1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5DA4D7-C122-4F70-BEFD-56B70985D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{069C3F11-75A4-4FB6-B215-0854D8E6AA19}"/>
   </bookViews>
   <sheets>
     <sheet name="M_MUT_and_WT_M_E18_WB" sheetId="4" r:id="rId1"/>
     <sheet name="M_MUT_and_WT_M_P30_CORT" sheetId="1" r:id="rId2"/>
     <sheet name="M_MUT_and_WT_M_P60_CORT" sheetId="2" r:id="rId3"/>
     <sheet name="M_MUT_and_WT_M_P120_CORT" sheetId="3" r:id="rId4"/>
+    <sheet name="Combined" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>Cluster</t>
   </si>
@@ -112,6 +113,177 @@
   </si>
   <si>
     <t>EdgeR Only</t>
+  </si>
+  <si>
+    <t>L2_3_IT_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>L6_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Sst_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>L5_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>L4_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Pvalb_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Sncg_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Non-neuronal_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Oligo_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Vip_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Lamp5_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Astro_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Peri_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>Endo_M_MUT_and_WT_M_E18_WB</t>
+  </si>
+  <si>
+    <t>L2_3_IT_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>L6_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Sst_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>L5_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>L4_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Pvalb_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Sncg_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Non-neuronal_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Oligo_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Vip_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Lamp5_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Astro_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Peri_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>Endo_M_MUT_and_WT_M_P30_CORT</t>
+  </si>
+  <si>
+    <t>L2_3_IT_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>L6_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Sst_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>L5_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>L4_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Pvalb_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Sncg_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Non-neuronal_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Oligo_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Vip_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Lamp5_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Astro_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Peri_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>Endo_M_MUT_and_WT_M_P60_CORT</t>
+  </si>
+  <si>
+    <t>L2_3_IT_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>L6_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Sst_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>L5_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>L4_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Pvalb_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Sncg_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Non-neuronal_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Oligo_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Vip_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Lamp5_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Astro_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Peri_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Endo_M_MUT_and_WT_M_P120_CORT</t>
+  </si>
+  <si>
+    <t>Cluster and Metadata</t>
   </si>
 </sst>
 </file>
@@ -135,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,11 +335,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +384,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51042800-4EDA-4A59-84F7-92389264E67E}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1896,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="B2" sqref="B2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,7 +2494,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B2" sqref="B2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2868,4 +3082,2329 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B844CF-FA69-446F-A868-6A0C063524D5}">
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f>F2+I2+J2+L2</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <f>G2+I2+K2+L2</f>
+        <v>593</v>
+      </c>
+      <c r="E2" s="6">
+        <f>H2+K2+J2+L2</f>
+        <v>562</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>193</v>
+      </c>
+      <c r="H2" s="6">
+        <v>162</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>396</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C15" si="0">F3+I3+J3+L3</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D15" si="1">G3+I3+K3+L3</f>
+        <v>291</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E15" si="2">H3+K3+J3+L3</f>
+        <v>280</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>128</v>
+      </c>
+      <c r="H3" s="6">
+        <v>116</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>160</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>68</v>
+      </c>
+      <c r="H4" s="6">
+        <v>96</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>92</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>133</v>
+      </c>
+      <c r="H5" s="6">
+        <v>195</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>492</v>
+      </c>
+      <c r="L5" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>72</v>
+      </c>
+      <c r="H6" s="6">
+        <v>367</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>321</v>
+      </c>
+      <c r="L6" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>101</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6">
+        <v>465</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>189</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>824</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>101</v>
+      </c>
+      <c r="H12" s="6">
+        <v>405</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>406</v>
+      </c>
+      <c r="L12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>94</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>24</v>
+      </c>
+      <c r="L13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2">
+        <v>285</v>
+      </c>
+      <c r="E16" s="2">
+        <v>567</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2">
+        <v>285</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2">
+        <v>210</v>
+      </c>
+      <c r="L16" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2">
+        <v>276</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2">
+        <v>178</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>76</v>
+      </c>
+      <c r="L17" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>18</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>250</v>
+      </c>
+      <c r="E19" s="2">
+        <v>495</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
+        <v>257</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>188</v>
+      </c>
+      <c r="L19" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2">
+        <v>95</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>42</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>95</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>13</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>7</v>
+      </c>
+      <c r="K26" s="2">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <f>F30+I30+J30+L30</f>
+        <v>357</v>
+      </c>
+      <c r="D30" s="2">
+        <f>G30+I30+K30+L30</f>
+        <v>1159</v>
+      </c>
+      <c r="E30" s="2">
+        <f>H30+K30+J30+L30</f>
+        <v>1618</v>
+      </c>
+      <c r="F30" s="2">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2">
+        <v>61</v>
+      </c>
+      <c r="H30" s="2">
+        <v>476</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>47</v>
+      </c>
+      <c r="K30" s="2">
+        <v>852</v>
+      </c>
+      <c r="L30" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" ref="C31:C43" si="3">F31+I31+J31+L31</f>
+        <v>94</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:D43" si="4">G31+I31+K31+L31</f>
+        <v>396</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31:E43" si="5">H31+K31+J31+L31</f>
+        <v>1132</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2">
+        <v>697</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>46</v>
+      </c>
+      <c r="K31" s="2">
+        <v>343</v>
+      </c>
+      <c r="L31" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>94</v>
+      </c>
+      <c r="H32" s="2">
+        <v>99</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>252</v>
+      </c>
+      <c r="L32" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
+        <v>965</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="5"/>
+        <v>1531</v>
+      </c>
+      <c r="F33" s="2">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2">
+        <v>59</v>
+      </c>
+      <c r="H33" s="2">
+        <v>569</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>56</v>
+      </c>
+      <c r="K33" s="2">
+        <v>743</v>
+      </c>
+      <c r="L33" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
+      <c r="H34" s="2">
+        <v>170</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>28</v>
+      </c>
+      <c r="K34" s="2">
+        <v>146</v>
+      </c>
+      <c r="L34" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>50</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>16</v>
+      </c>
+      <c r="L35" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>61</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>48</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>5</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>16</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>4</v>
+      </c>
+      <c r="L40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>14</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <f>F44+I44+J44+L44</f>
+        <v>348</v>
+      </c>
+      <c r="D44" s="2">
+        <f>G44+I44+K44+L44</f>
+        <v>2492</v>
+      </c>
+      <c r="E44" s="2">
+        <f>H44+K44+J44+L44</f>
+        <v>2838</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2">
+        <v>202</v>
+      </c>
+      <c r="H44" s="2">
+        <v>516</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2">
+        <v>35</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1999</v>
+      </c>
+      <c r="L44" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:C57" si="6">F45+I45+J45+L45</f>
+        <v>299</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45:D57" si="7">G45+I45+K45+L45</f>
+        <v>2591</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ref="E45:E57" si="8">H45+K45+J45+L45</f>
+        <v>3362</v>
+      </c>
+      <c r="F45" s="2">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2">
+        <v>146</v>
+      </c>
+      <c r="H45" s="2">
+        <v>888</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>32</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2198</v>
+      </c>
+      <c r="L45" s="3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="7"/>
+        <v>1077</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="8"/>
+        <v>1292</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2">
+        <v>319</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6</v>
+      </c>
+      <c r="K46" s="2">
+        <v>881</v>
+      </c>
+      <c r="L46" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="6"/>
+        <v>337</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="7"/>
+        <v>2704</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="8"/>
+        <v>3154</v>
+      </c>
+      <c r="F47" s="2">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2">
+        <v>193</v>
+      </c>
+      <c r="H47" s="2">
+        <v>613</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>32</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2222</v>
+      </c>
+      <c r="L47" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="7"/>
+        <v>547</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="8"/>
+        <v>825</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>49</v>
+      </c>
+      <c r="H48" s="2">
+        <v>326</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>456</v>
+      </c>
+      <c r="L48" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="7"/>
+        <v>648</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="8"/>
+        <v>992</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>70</v>
+      </c>
+      <c r="H49" s="2">
+        <v>414</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>533</v>
+      </c>
+      <c r="L49" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>18</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>6</v>
+      </c>
+      <c r="H51" s="2">
+        <v>194</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>88</v>
+      </c>
+      <c r="L51" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="F52" s="2">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="7"/>
+        <v>720</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="8"/>
+        <v>1339</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2">
+        <v>641</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2">
+        <v>635</v>
+      </c>
+      <c r="L53" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="7"/>
+        <v>742</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="8"/>
+        <v>1148</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>47</v>
+      </c>
+      <c r="H54" s="2">
+        <v>446</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>7</v>
+      </c>
+      <c r="K54" s="2">
+        <v>627</v>
+      </c>
+      <c r="L54" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>48</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>16</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>